--- a/TestDataGen/TestData.xlsx
+++ b/TestDataGen/TestData.xlsx
@@ -424,159 +424,159 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Jean Harris</t>
+          <t>Kyle James</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>nanamikato@example.org</t>
+          <t>josesmith@example.com</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>863 Mendez Trafficway Apt. 019
-Jasminemouth, MO 68240</t>
+          <t>Unit 5700 Box 6753
+DPO AE 11890</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nicholas Kelly</t>
+          <t>Kathy Carroll</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mistyalvarado@example.org</t>
+          <t>sayuri88@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>926 Gay Crescent Suite 740
-New Tiffanyhaven, NC 40222</t>
+          <t>山形県中央区三ノ輪6丁目1番12号</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>渡辺 篤司</t>
+          <t>Thomas Rogers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>oyamada@example.com</t>
+          <t>qparrish@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unit 6464 Box 1495
-DPO AA 66397</t>
+          <t>9191 Mills Lock Apt. 596
+Matthewborough, NJ 90321</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>山田 香織</t>
+          <t>Kristen Dillon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>david99@example.net</t>
+          <t>uharper@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>53401 Dean Trafficway Apt. 247
-Smithfurt, ME 87530</t>
+          <t>449 Brown Via
+East Sheila, PW 39059</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>井上 あすか</t>
+          <t>坂本 直子</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>yokosuzuki@example.com</t>
+          <t>kyosuke53@example.org</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>和歌山県武蔵野市油井22丁目18番17号 四区町コート053</t>
+          <t>富山県八千代市竜泉23丁目6番7号 天神島クレスト340</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jason York</t>
+          <t>Jennifer Lara</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bakeradrian@example.net</t>
+          <t>lisa78@example.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>796 Harris Fords
-Freyhaven, NV 95131</t>
+          <t>216 Henry Estates
+New Emilymouth, MA 00954</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>岡本 七夏</t>
+          <t>Theresa Acevedo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stephen62@example.org</t>
+          <t>mai39@example.net</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6392 Bonnie Bypass
-Adamsville, GA 33636</t>
+          <t>静岡県川崎市高津区轟5丁目21番8号 東神田コーポ348</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Robert Jones</t>
+          <t>佐藤 美加子</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>yamashitashota@example.org</t>
+          <t>tomoyayamada@example.net</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>和歌山県山武郡芝山町四区町9丁目2番7号 藤金シャルム466</t>
+          <t>PSC 5071, Box 1789
+APO AE 53673</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>岡田 和也</t>
+          <t>森 拓真</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ztakahashi@example.com</t>
+          <t>yortiz@example.org</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>熊本県狛江市芝大門20丁目14番18号 無栗屋パレス559</t>
+          <t>14071 James Station
+Jamesborough, CT 52080</t>
         </is>
       </c>
     </row>
